--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Group\RPA\Ui Path Code\Alexandra\PRC_Recharges_Performer_VodafoneUsage\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305DD3F9-3830-45C8-9DC4-842A291136EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2807203C-424D-4E9E-9CE9-AF2A39DA27E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -169,9 +169,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>Recharges Performer</t>
-  </si>
-  <si>
     <t>Recharges_VodafoneUsageQueue</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>Tenant ID</t>
   </si>
   <si>
-    <t>Asset_MAIL_MailAccountUsed</t>
-  </si>
-  <si>
     <t>Recharges_MAIL_strMailAccountUsed</t>
   </si>
   <si>
@@ -235,21 +229,6 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>MailSubject_MissingCC</t>
-  </si>
-  <si>
-    <t>Recharges_MAIL_TO_MissingCC</t>
-  </si>
-  <si>
-    <t>Asset_MAIL_TO_MissingCC</t>
-  </si>
-  <si>
-    <t>Recharges_MAIL_CC_MissingCC</t>
-  </si>
-  <si>
-    <t>Asset_MAIL_CC_MissingCC</t>
-  </si>
-  <si>
     <t>VodafoneBackUpRange</t>
   </si>
   <si>
@@ -364,9 +343,6 @@
     <t>Header</t>
   </si>
   <si>
-    <t>VodafoneHeaderSheetName</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -385,7 +361,94 @@
     <t>vbaCopyColumnDataInRange</t>
   </si>
   <si>
-    <t>Recharges Automation - Vodafone Usage - Missing CC for Employee IDs</t>
+    <t>Recharges_MAIL_TO</t>
+  </si>
+  <si>
+    <t>Recharges_Mail_Account</t>
+  </si>
+  <si>
+    <t>Recharges_VodafoneUsageMappingFile</t>
+  </si>
+  <si>
+    <t>Active Names</t>
+  </si>
+  <si>
+    <t>VodafoneMappingSheetName</t>
+  </si>
+  <si>
+    <t>Recharges Vodafone Usage Performer</t>
+  </si>
+  <si>
+    <t>Recharges Automation - Vodafone Usage - Journal {0}</t>
+  </si>
+  <si>
+    <t>MailSubject_Journal</t>
+  </si>
+  <si>
+    <t>Asset_MAIL_TO</t>
+  </si>
+  <si>
+    <t>HeaderSheetName</t>
+  </si>
+  <si>
+    <t>PreparedByRange</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>DatePreparedRange</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>DateAuthorizedRange</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>DatePostedRange</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>FinancialYearRange</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>DocumentDateRange</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>PostingDateRange</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>PostingPeriodRange</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>vbaRemoveDuplicatesInColumn</t>
+  </si>
+  <si>
+    <t>RemoveDuplicatesInColumn</t>
+  </si>
+  <si>
+    <t>PreparedByName</t>
+  </si>
+  <si>
+    <t>Robot</t>
   </si>
 </sst>
 </file>
@@ -775,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1016"/>
+  <dimension ref="A1:Z1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -828,7 +891,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -849,7 +912,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -858,312 +921,387 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A51" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A45" s="6" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A57" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B57" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -2116,6 +2254,15 @@
     <row r="1014" ht="14.25" customHeight="1"/>
     <row r="1015" ht="14.25" customHeight="1"/>
     <row r="1016" ht="14.25" customHeight="1"/>
+    <row r="1017" ht="14.25" customHeight="1"/>
+    <row r="1018" ht="14.25" customHeight="1"/>
+    <row r="1019" ht="14.25" customHeight="1"/>
+    <row r="1020" ht="14.25" customHeight="1"/>
+    <row r="1021" ht="14.25" customHeight="1"/>
+    <row r="1022" ht="14.25" customHeight="1"/>
+    <row r="1023" ht="14.25" customHeight="1"/>
+    <row r="1024" ht="14.25" customHeight="1"/>
+    <row r="1025" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3291,7 +3438,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3340,34 +3487,34 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Group\RPA\Ui Path Code\Alexandra\PRC_Recharges_Performer_VodafoneUsage\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2807203C-424D-4E9E-9CE9-AF2A39DA27E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A2C84-5AD4-4BFD-A2B2-62E81F65603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -295,9 +295,6 @@
     <t>A7</t>
   </si>
   <si>
-    <t xml:space="preserve">P{0} FY{1}  Actual Vodafone usage recharges </t>
-  </si>
-  <si>
     <t>VodafoneDataForJournalWriteRange</t>
   </si>
   <si>
@@ -449,6 +446,33 @@
   </si>
   <si>
     <t>Robot</t>
+  </si>
+  <si>
+    <t>P{0} Voda Act {1} {2} chgs</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>VodafoneReference</t>
+  </si>
+  <si>
+    <t>VodafoneReferenceRange</t>
+  </si>
+  <si>
+    <t>Re {0} {1} chgs</t>
+  </si>
+  <si>
+    <t>ExcludeSpecificValueInPivot</t>
+  </si>
+  <si>
+    <t>vbaExcludeSpecificValueInPivot</t>
+  </si>
+  <si>
+    <t>VodafonePivotName</t>
+  </si>
+  <si>
+    <t>PivotTable1</t>
   </si>
 </sst>
 </file>
@@ -838,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1025"/>
+  <dimension ref="A1:Z1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -912,7 +936,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -992,18 +1016,18 @@
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
@@ -1019,7 +1043,7 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
@@ -1075,12 +1099,12 @@
         <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
         <v>84</v>
@@ -1088,7 +1112,7 @@
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
@@ -1096,210 +1120,238 @@
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
         <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
         <v>91</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="A44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A52" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" t="s">
-        <v>113</v>
-      </c>
-    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A57" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A56" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A57" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" t="s">
-        <v>105</v>
-      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s">
         <v>133</v>
       </c>
-      <c r="B58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
@@ -2263,6 +2315,9 @@
     <row r="1023" ht="14.25" customHeight="1"/>
     <row r="1024" ht="14.25" customHeight="1"/>
     <row r="1025" ht="14.25" customHeight="1"/>
+    <row r="1026" ht="14.25" customHeight="1"/>
+    <row r="1027" ht="14.25" customHeight="1"/>
+    <row r="1028" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3495,7 +3550,7 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -3503,18 +3558,18 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Group\RPA\Ui Path Code\Alexandra\PRC_Recharges_Performer_VodafoneUsage\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A2C84-5AD4-4BFD-A2B2-62E81F65603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC039260-D722-4A22-811C-F934636C7BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="23040" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -473,6 +473,30 @@
   </si>
   <si>
     <t>PivotTable1</t>
+  </si>
+  <si>
+    <t>Data\ExtendFormula.txt</t>
+  </si>
+  <si>
+    <t>vbaExtendFormulaCode</t>
+  </si>
+  <si>
+    <t>Data\CopyColumnDataInRange.txt</t>
+  </si>
+  <si>
+    <t>vbaCopyColumnDataInRangeCode</t>
+  </si>
+  <si>
+    <t>vbaRemoveDuplicatesInColumnCode</t>
+  </si>
+  <si>
+    <t>Data\RemoveDuplicatesInColumn.txt</t>
+  </si>
+  <si>
+    <t>Data\ExcludeSpecificValueInPivot.txt</t>
+  </si>
+  <si>
+    <t>vbaExcludeSpecificValueInPivotCode</t>
   </si>
 </sst>
 </file>
@@ -864,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1352,24 +1376,52 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="68" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="69" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="70" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="71" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="72" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="74" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="75" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="76" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="77" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="78" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="79" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="80" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
